--- a/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/ProjectLog-G12-5814-350-1257.xlsx
+++ b/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/ProjectLog-G12-5814-350-1257.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/Github/ENSC-350/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D841EB5-DA9E-444C-B93D-022240CF7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B32EC59-0A04-415E-881D-078F49F7B7C2}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{4D841EB5-DA9E-444C-B93D-022240CF7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625AF2C6-AC0D-4FED-8C63-C0E0BFFDC005}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="12280" yWindow="2450" windowWidth="23890" windowHeight="15370" activeTab="4" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -538,7 +538,28 @@
     <t>helped write and debug and test a 4 bit look ahead carry network component</t>
   </si>
   <si>
-    <t>tried to implement a carry look ahead tree architecture for the adder</t>
+    <t>finished brent kung adder</t>
+  </si>
+  <si>
+    <t>worked on lws5 to learn about timing simulations</t>
+  </si>
+  <si>
+    <t>implemented a carry look ahead tree architecture for the adder</t>
+  </si>
+  <si>
+    <t>got all candidates quartus summaries and .vho and .sdo files</t>
+  </si>
+  <si>
+    <t>helped writing testbench and timing simulation, wrote all .do scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improved .do files and transcripts and compiled a kept the quartus synthesis for the last candidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">did LACTA and BKA cost and timing calculations, found delays for cyclone LES, drew brent-kung adder on the report, updated directory in the appendix, made experimental procedures and testbench procedure flowcharts </t>
+  </si>
+  <si>
+    <t>did cost and timing estimations for CBA, created images for the CBA and LACTA, wrote blurbs for intro and experimental procedure, added annotated waveform to testbench section, completed timing analysis section, found delays for an ALM, updated the references, wrote result analysis section of Summary report</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1589,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8960,8 +8981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC5635-BB81-4716-B442-28EF74567593}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9034,8 +9055,8 @@
       <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>11</v>
+      <c r="B5" s="42">
+        <v>0.5</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -9105,119 +9126,199 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E8" s="22">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
-        <v>3.5000000000000009</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C9" s="21">
+        <v>45965</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8125</v>
+      </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
-        <v>0</v>
+        <f>(E9-D9)*24</f>
+        <v>3.5000000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45972</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.75</v>
+      </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(E10-D10)*24</f>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="31"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C11" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.6875</v>
+      </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(E11-D11)*24</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C12" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.6875</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H12:H72" si="1">(E12-D12)*24</f>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C13" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.8125</v>
+      </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45976</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="31"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C16" s="21">
+        <v>45976</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4999999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -10043,7 +10144,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
